--- a/乾坤 (version 1).xlsx
+++ b/乾坤 (version 1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0ADB7A-8998-4B78-8F0E-FBDED924CD9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C77114B-1C7C-4ED4-B7BF-C161B7E10DBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表总览" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,17 @@
     <sheet name="消息表" sheetId="9" r:id="rId10"/>
     <sheet name="文件表" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="258">
   <si>
     <t>表定义总览</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,6 +1042,10 @@
   </si>
   <si>
     <t>major:0查询全部，擅长的方向用与按照擅长方向查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：待发货 2：已发货 3：已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1098,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1133,26 +1130,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1451,16 +1456,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1468,7 +1473,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1477,7 +1482,7 @@
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1486,7 +1491,7 @@
         <f t="shared" ref="A5:A11" si="0">A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1495,7 +1500,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1504,7 +1509,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1513,7 +1518,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1522,7 +1527,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1531,7 +1536,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1540,7 +1545,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2042,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A10465-C34E-44E4-91E4-6E1BB5510547}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2070,17 +2075,17 @@
       <c r="B3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2089,17 +2094,17 @@
       <c r="B4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2108,17 +2113,17 @@
       <c r="B5" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
       <c r="L5" t="s">
         <v>254</v>
       </c>
@@ -2130,23 +2135,23 @@
       <c r="B6" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="L6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2157,17 +2162,17 @@
       <c r="B8" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2176,36 +2181,36 @@
       <c r="B9" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2216,17 +2221,17 @@
       <c r="B12" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2235,7 +2240,7 @@
       <c r="B13" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2271,7 +2276,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2373,7 +2378,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>198</v>
       </c>
@@ -2387,7 +2392,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>201</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>206</v>
       </c>
@@ -2891,7 +2896,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -2975,7 +2980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>217</v>
       </c>
@@ -3304,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C9B188-970F-4127-AE17-062D73EE3C8C}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3318,12 +3323,12 @@
     <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3337,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -3351,7 +3356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3365,7 +3370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -3379,7 +3384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>239</v>
       </c>
@@ -3393,7 +3398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>240</v>
       </c>
@@ -3405,7 +3410,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>244</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -3432,8 +3437,11 @@
       <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>246</v>
       </c>
@@ -3447,7 +3455,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -3461,7 +3469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -3475,7 +3483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>248</v>
       </c>
@@ -3489,7 +3497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>203</v>
       </c>
@@ -3503,7 +3511,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>250</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -3669,7 +3677,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>231</v>
       </c>

--- a/乾坤 (version 1).xlsx
+++ b/乾坤 (version 1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C77114B-1C7C-4ED4-B7BF-C161B7E10DBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3BDD77-D769-481D-A259-D3B52473AC1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表总览" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="273">
   <si>
     <t>表定义总览</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,6 +1046,63 @@
   </si>
   <si>
     <t>1：待发货 2：已发货 3：已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程检索：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/searchCourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/getCourseByUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：pageNum,pageSize,cource属性字段（按需）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：userId,pageNum,pageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/info/searchInformations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：pageNum, pageSize, infoType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户id查询该用户已购买的课程：</t>
+  </si>
+  <si>
+    <t>查询资讯：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/getFamousTeachers</t>
+  </si>
+  <si>
+    <t>根据条件查询名师列表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：pageNum, pageSize, user（按需）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户id查询我的订单详情：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/getOrderByUserId</t>
+  </si>
+  <si>
+    <t>参数：userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1153,11 +1210,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1456,10 +1516,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -2045,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A10465-C34E-44E4-91E4-6E1BB5510547}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2075,17 +2135,17 @@
       <c r="B3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2094,17 +2154,17 @@
       <c r="B4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2113,17 +2173,17 @@
       <c r="B5" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
       <c r="L5" t="s">
         <v>254</v>
       </c>
@@ -2135,17 +2195,17 @@
       <c r="B6" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" t="s">
         <v>256</v>
       </c>
@@ -2162,17 +2222,17 @@
       <c r="B8" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2181,33 +2241,33 @@
       <c r="B9" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -2221,17 +2281,17 @@
       <c r="B12" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2252,6 +2312,61 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C9B188-970F-4127-AE17-062D73EE3C8C}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3437,7 +3552,7 @@
       <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>257</v>
       </c>
     </row>

--- a/乾坤 (version 1).xlsx
+++ b/乾坤 (version 1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3BDD77-D769-481D-A259-D3B52473AC1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C7010E-8FC7-40B3-A602-4CBC82EC2566}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表总览" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="275">
   <si>
     <t>表定义总览</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,10 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1：待发货 2：已发货 3：已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课程检索：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1103,6 +1099,18 @@
   </si>
   <si>
     <t>参数：userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：全职名师 2：兼职名师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多级评论预留字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：进行中 2：已付款 3：已评价  4：退款中 5：已退款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,13 +1219,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1516,10 +1524,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -1624,7 +1632,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1873,7 +1881,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2107,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A10465-C34E-44E4-91E4-6E1BB5510547}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2135,17 +2143,17 @@
       <c r="B3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2154,17 +2162,17 @@
       <c r="B4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2173,17 +2181,17 @@
       <c r="B5" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" t="s">
         <v>254</v>
       </c>
@@ -2195,17 +2203,17 @@
       <c r="B6" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6" t="s">
         <v>256</v>
       </c>
@@ -2222,17 +2230,17 @@
       <c r="B8" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2241,33 +2249,33 @@
       <c r="B9" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -2281,17 +2289,17 @@
       <c r="B12" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2316,57 +2324,57 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" t="s">
         <v>258</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
         <v>259</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" t="s">
         <v>263</v>
-      </c>
-      <c r="C22" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
         <v>268</v>
-      </c>
-      <c r="B24" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" t="s">
         <v>270</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>271</v>
-      </c>
-      <c r="C26" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2390,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81A1CDB-2386-4284-BE66-8327DDE15F48}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2619,7 +2627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
@@ -2647,7 +2655,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2675,7 +2683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2689,7 +2697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -2717,7 +2725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +2739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2745,7 +2753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2758,8 +2766,11 @@
       <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>150</v>
       </c>
@@ -2773,7 +2784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -2787,7 +2798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -2801,7 +2812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,7 +2840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -3121,7 +3132,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3427,7 +3438,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="S5" sqref="S5:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3553,7 +3564,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3997,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A7ECB2-2836-4862-80D0-2B7691E2AD7C}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4009,12 +4020,12 @@
     <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4028,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
@@ -4042,7 +4053,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -4056,7 +4067,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -4070,7 +4081,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -4084,7 +4095,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>135</v>
       </c>
@@ -4097,8 +4108,11 @@
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>137</v>
       </c>
@@ -4112,7 +4126,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>139</v>
       </c>
@@ -4126,7 +4140,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -4140,7 +4154,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -4154,7 +4168,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -4168,7 +4182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -4182,7 +4196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -4196,7 +4210,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -4210,7 +4224,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
